--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Koski.Spring.041921.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Koski.Spring.041921.xlsx_with_dialog_acts.xlsx
@@ -661,12 +661,12 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1167,12 +1167,12 @@
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1889,12 +1889,12 @@
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2343,12 +2343,12 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2385,12 +2385,12 @@
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2676,12 +2676,12 @@
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3148,12 +3148,12 @@
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3262,12 +3262,12 @@
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3594,12 +3594,12 @@
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3792,12 +3792,12 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3834,12 +3834,12 @@
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4446,12 +4446,12 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4615,12 +4615,12 @@
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4948,12 +4948,12 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4986,12 +4986,12 @@
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5517,12 +5517,12 @@
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6001,12 +6001,12 @@
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -6127,12 +6127,12 @@
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -7086,12 +7086,12 @@
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -7983,12 +7983,12 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8021,12 +8021,12 @@
       <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8135,12 +8135,12 @@
       <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8911,12 +8911,12 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9122,12 +9122,12 @@
       <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9970,12 +9970,12 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10055,12 +10055,12 @@
       <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10391,12 +10391,12 @@
       <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -11037,12 +11037,12 @@
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11151,12 +11151,12 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11270,12 +11270,12 @@
       <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11480,12 +11480,12 @@
       <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12430,12 +12430,12 @@
       <c r="H296" t="inlineStr"/>
       <c r="I296" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12557,12 +12557,12 @@
       <c r="H299" t="inlineStr"/>
       <c r="I299" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12769,12 +12769,12 @@
       <c r="H304" t="inlineStr"/>
       <c r="I304" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12892,12 +12892,12 @@
       <c r="H307" t="inlineStr"/>
       <c r="I307" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13342,12 +13342,12 @@
       <c r="H318" t="inlineStr"/>
       <c r="I318" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13552,12 +13552,12 @@
       <c r="H323" t="inlineStr"/>
       <c r="I323" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13759,12 +13759,12 @@
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14133,12 +14133,12 @@
       <c r="H337" t="inlineStr"/>
       <c r="I337" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14207,12 +14207,12 @@
       <c r="H339" t="inlineStr"/>
       <c r="I339" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14365,12 +14365,12 @@
       <c r="H343" t="inlineStr"/>
       <c r="I343" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
